--- a/pyRevitnvn.tab/Training.panel/gdfo.pushbutton/ex_conf.xlsx
+++ b/pyRevitnvn.tab/Training.panel/gdfo.pushbutton/ex_conf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit\Extensions\pyRevitnvn.extension\pyRevitnvn.tab\Training.panel\gdfo.pushbutton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit\Extensions\pyRevitnvn.extension\pyRevitnvn.tab\Training.panel\Gdfo.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DD7ABE-50B3-4699-99B3-BA5CD471DCFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC05E8-1332-4709-98F2-6E5BA3F45B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6350" yWindow="390" windowWidth="13470" windowHeight="8030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="1070" windowWidth="13470" windowHeight="8030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,64 +25,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>keep_not_change</t>
-  </si>
-  <si>
-    <t>0,1,3,4</t>
-  </si>
-  <si>
-    <t>characters_special</t>
-  </si>
-  <si>
-    <t>,:-()x.=</t>
-  </si>
-  <si>
-    <t>con_expect_case</t>
-  </si>
-  <si>
-    <t>(4,3):(Tw1_New=Tw2);(5,3):(Tw1=Tw2);(6,3):(Tw1=Tw2)</t>
-  </si>
-  <si>
-    <t>family_name</t>
-  </si>
-  <si>
-    <t>get_param</t>
-  </si>
-  <si>
-    <t>param_to_fill_out</t>
-  </si>
-  <si>
-    <t>value_to_fill_out</t>
-  </si>
-  <si>
-    <t>case_expect</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>3712a.AB-nMD - PL_pt</t>
   </si>
   <si>
-    <t>Type Mark</t>
-  </si>
-  <si>
-    <t>(T,W_T2)</t>
-  </si>
-  <si>
-    <t>Spacexdx10</t>
-  </si>
-  <si>
-    <t>M_Double C-Channel-Column</t>
-  </si>
-  <si>
-    <t>(Space,d)</t>
+    <t>1.family_name</t>
+  </si>
+  <si>
+    <t>2.param_to_fill_out</t>
+  </si>
+  <si>
+    <t>3.get_param</t>
+  </si>
+  <si>
+    <t>4.value_to_fill_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto set parameter </t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>W_T2xTw_Column_Rafter_WFxT</t>
+  </si>
+  <si>
+    <t>W_T2,Tw_Column_Rafter_WF,T</t>
+  </si>
+  <si>
+    <t>Tw1,Tw,T2,Tf</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>3633.Column-Straight-Standard-Revit</t>
+  </si>
+  <si>
+    <t>I-W.Tw1xTw, F.T2xTf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +78,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,13 +126,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,92 +420,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="33.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>